--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Il6ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H2">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I2">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J2">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.0914024338516</v>
+        <v>2.097707666666667</v>
       </c>
       <c r="N2">
-        <v>2.0914024338516</v>
+        <v>6.293123</v>
       </c>
       <c r="O2">
-        <v>0.0633155462072359</v>
+        <v>0.06202842610710742</v>
       </c>
       <c r="P2">
-        <v>0.0633155462072359</v>
+        <v>0.0620284261071074</v>
       </c>
       <c r="Q2">
-        <v>2.134689478551472</v>
+        <v>1.115749730823334</v>
       </c>
       <c r="R2">
-        <v>2.134689478551472</v>
+        <v>10.04174757741</v>
       </c>
       <c r="S2">
-        <v>0.01459816022674465</v>
+        <v>0.005818023629059694</v>
       </c>
       <c r="T2">
-        <v>0.01459816022674465</v>
+        <v>0.005818023629059692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H3">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I3">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J3">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.814780877862616</v>
+        <v>0.8221409999999999</v>
       </c>
       <c r="N3">
-        <v>0.814780877862616</v>
+        <v>2.466423</v>
       </c>
       <c r="O3">
-        <v>0.02466684339946754</v>
+        <v>0.02431039990865746</v>
       </c>
       <c r="P3">
-        <v>0.02466684339946754</v>
+        <v>0.02431039990865746</v>
       </c>
       <c r="Q3">
-        <v>0.8316448996834602</v>
+        <v>0.43728857649</v>
       </c>
       <c r="R3">
-        <v>0.8316448996834602</v>
+        <v>3.93559718841</v>
       </c>
       <c r="S3">
-        <v>0.005687237239569033</v>
+        <v>0.002280220375997147</v>
       </c>
       <c r="T3">
-        <v>0.005687237239569033</v>
+        <v>0.002280220375997147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H4">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I4">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J4">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.0004544677442</v>
+        <v>11.04613266666667</v>
       </c>
       <c r="N4">
-        <v>11.0004544677442</v>
+        <v>33.138398</v>
       </c>
       <c r="O4">
-        <v>0.3330300146348946</v>
+        <v>0.3266299850886302</v>
       </c>
       <c r="P4">
-        <v>0.3330300146348946</v>
+        <v>0.3266299850886302</v>
       </c>
       <c r="Q4">
-        <v>11.22813765131361</v>
+        <v>5.875327504073335</v>
       </c>
       <c r="R4">
-        <v>11.22813765131361</v>
+        <v>52.87794753666001</v>
       </c>
       <c r="S4">
-        <v>0.07678407287276477</v>
+        <v>0.0306366143794082</v>
       </c>
       <c r="T4">
-        <v>0.07678407287276477</v>
+        <v>0.0306366143794082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H5">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I5">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J5">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.1247827662367</v>
+        <v>19.80071533333333</v>
       </c>
       <c r="N5">
-        <v>19.1247827662367</v>
+        <v>59.402146</v>
       </c>
       <c r="O5">
-        <v>0.5789875957584021</v>
+        <v>0.5854996992375019</v>
       </c>
       <c r="P5">
-        <v>0.5789875957584021</v>
+        <v>0.5854996992375019</v>
       </c>
       <c r="Q5">
-        <v>19.52062017805075</v>
+        <v>10.53180247864667</v>
       </c>
       <c r="R5">
-        <v>19.52062017805075</v>
+        <v>94.78622230782001</v>
       </c>
       <c r="S5">
-        <v>0.133492549594603</v>
+        <v>0.05491758051524715</v>
       </c>
       <c r="T5">
-        <v>0.133492549594603</v>
+        <v>0.05491758051524714</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.51921970437093</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H6">
-        <v>1.51921970437093</v>
+        <v>1.59567</v>
       </c>
       <c r="I6">
-        <v>0.3431715311523711</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J6">
-        <v>0.3431715311523711</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.0914024338516</v>
+        <v>0.05179266666666667</v>
       </c>
       <c r="N6">
-        <v>2.0914024338516</v>
+        <v>0.155378</v>
       </c>
       <c r="O6">
-        <v>0.0633155462072359</v>
+        <v>0.001531489658103002</v>
       </c>
       <c r="P6">
-        <v>0.0633155462072359</v>
+        <v>0.001531489658103001</v>
       </c>
       <c r="Q6">
-        <v>3.177299787276671</v>
+        <v>0.02754800147333334</v>
       </c>
       <c r="R6">
-        <v>3.177299787276671</v>
+        <v>0.2479320132600001</v>
       </c>
       <c r="S6">
-        <v>0.02172809293768585</v>
+        <v>0.0001436477366541282</v>
       </c>
       <c r="T6">
-        <v>0.02172809293768585</v>
+        <v>0.0001436477366541281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.51921970437093</v>
+        <v>1.130951</v>
       </c>
       <c r="H7">
-        <v>1.51921970437093</v>
+        <v>3.392853</v>
       </c>
       <c r="I7">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J7">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.814780877862616</v>
+        <v>2.097707666666667</v>
       </c>
       <c r="N7">
-        <v>0.814780877862616</v>
+        <v>6.293123</v>
       </c>
       <c r="O7">
-        <v>0.02466684339946754</v>
+        <v>0.06202842610710742</v>
       </c>
       <c r="P7">
-        <v>0.02466684339946754</v>
+        <v>0.0620284261071074</v>
       </c>
       <c r="Q7">
-        <v>1.23783116439353</v>
+        <v>2.372404583324334</v>
       </c>
       <c r="R7">
-        <v>1.23783116439353</v>
+        <v>21.351641249919</v>
       </c>
       <c r="S7">
-        <v>0.008464958418091036</v>
+        <v>0.01237079027864538</v>
       </c>
       <c r="T7">
-        <v>0.008464958418091036</v>
+        <v>0.01237079027864537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.51921970437093</v>
+        <v>1.130951</v>
       </c>
       <c r="H8">
-        <v>1.51921970437093</v>
+        <v>3.392853</v>
       </c>
       <c r="I8">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J8">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.0004544677442</v>
+        <v>0.8221409999999999</v>
       </c>
       <c r="N8">
-        <v>11.0004544677442</v>
+        <v>2.466423</v>
       </c>
       <c r="O8">
-        <v>0.3330300146348946</v>
+        <v>0.02431039990865746</v>
       </c>
       <c r="P8">
-        <v>0.3330300146348946</v>
+        <v>0.02431039990865746</v>
       </c>
       <c r="Q8">
-        <v>16.71210718443222</v>
+        <v>0.9298011860909999</v>
       </c>
       <c r="R8">
-        <v>16.71210718443222</v>
+        <v>8.368210674819</v>
       </c>
       <c r="S8">
-        <v>0.1142864200419533</v>
+        <v>0.004848403832473536</v>
       </c>
       <c r="T8">
-        <v>0.1142864200419533</v>
+        <v>0.004848403832473536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.51921970437093</v>
+        <v>1.130951</v>
       </c>
       <c r="H9">
-        <v>1.51921970437093</v>
+        <v>3.392853</v>
       </c>
       <c r="I9">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J9">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.1247827662367</v>
+        <v>11.04613266666667</v>
       </c>
       <c r="N9">
-        <v>19.1247827662367</v>
+        <v>33.138398</v>
       </c>
       <c r="O9">
-        <v>0.5789875957584021</v>
+        <v>0.3266299850886302</v>
       </c>
       <c r="P9">
-        <v>0.5789875957584021</v>
+        <v>0.3266299850886302</v>
       </c>
       <c r="Q9">
-        <v>29.05474682028037</v>
+        <v>12.49263478549933</v>
       </c>
       <c r="R9">
-        <v>29.05474682028037</v>
+        <v>112.433713069494</v>
       </c>
       <c r="S9">
-        <v>0.198692059754641</v>
+        <v>0.0651422468348833</v>
       </c>
       <c r="T9">
-        <v>0.198692059754641</v>
+        <v>0.0651422468348833</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.20044886189076</v>
+        <v>1.130951</v>
       </c>
       <c r="H10">
-        <v>1.20044886189076</v>
+        <v>3.392853</v>
       </c>
       <c r="I10">
-        <v>0.2711654363222964</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J10">
-        <v>0.2711654363222964</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.0914024338516</v>
+        <v>19.80071533333333</v>
       </c>
       <c r="N10">
-        <v>2.0914024338516</v>
+        <v>59.402146</v>
       </c>
       <c r="O10">
-        <v>0.0633155462072359</v>
+        <v>0.5854996992375019</v>
       </c>
       <c r="P10">
-        <v>0.0633155462072359</v>
+        <v>0.5854996992375019</v>
       </c>
       <c r="Q10">
-        <v>2.510621671472719</v>
+        <v>22.39363880694867</v>
       </c>
       <c r="R10">
-        <v>2.510621671472719</v>
+        <v>201.542749262538</v>
       </c>
       <c r="S10">
-        <v>0.01716898771326964</v>
+        <v>0.1167705589526016</v>
       </c>
       <c r="T10">
-        <v>0.01716898771326964</v>
+        <v>0.1167705589526016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.20044886189076</v>
+        <v>1.130951</v>
       </c>
       <c r="H11">
-        <v>1.20044886189076</v>
+        <v>3.392853</v>
       </c>
       <c r="I11">
-        <v>0.2711654363222964</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J11">
-        <v>0.2711654363222964</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.814780877862616</v>
+        <v>0.05179266666666667</v>
       </c>
       <c r="N11">
-        <v>0.814780877862616</v>
+        <v>0.155378</v>
       </c>
       <c r="O11">
-        <v>0.02466684339946754</v>
+        <v>0.001531489658103002</v>
       </c>
       <c r="P11">
-        <v>0.02466684339946754</v>
+        <v>0.001531489658103001</v>
       </c>
       <c r="Q11">
-        <v>0.9781027775205318</v>
+        <v>0.05857496815933334</v>
       </c>
       <c r="R11">
-        <v>0.9781027775205318</v>
+        <v>0.527174713434</v>
       </c>
       <c r="S11">
-        <v>0.006688795353110373</v>
+        <v>0.0003054363710856058</v>
       </c>
       <c r="T11">
-        <v>0.006688795353110373</v>
+        <v>0.0003054363710856058</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.20044886189076</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H12">
-        <v>1.20044886189076</v>
+        <v>4.62937</v>
       </c>
       <c r="I12">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J12">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0004544677442</v>
+        <v>2.097707666666667</v>
       </c>
       <c r="N12">
-        <v>11.0004544677442</v>
+        <v>6.293123</v>
       </c>
       <c r="O12">
-        <v>0.3330300146348946</v>
+        <v>0.06202842610710742</v>
       </c>
       <c r="P12">
-        <v>0.3330300146348946</v>
+        <v>0.0620284261071074</v>
       </c>
       <c r="Q12">
-        <v>13.20548304608465</v>
+        <v>3.237021646945556</v>
       </c>
       <c r="R12">
-        <v>13.20548304608465</v>
+        <v>29.13319482251</v>
       </c>
       <c r="S12">
-        <v>0.09030622922689195</v>
+        <v>0.01687929462085523</v>
       </c>
       <c r="T12">
-        <v>0.09030622922689195</v>
+        <v>0.01687929462085523</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.20044886189076</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H13">
-        <v>1.20044886189076</v>
+        <v>4.62937</v>
       </c>
       <c r="I13">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J13">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1247827662367</v>
+        <v>0.8221409999999999</v>
       </c>
       <c r="N13">
-        <v>19.1247827662367</v>
+        <v>2.466423</v>
       </c>
       <c r="O13">
-        <v>0.5789875957584021</v>
+        <v>0.02431039990865746</v>
       </c>
       <c r="P13">
-        <v>0.5789875957584021</v>
+        <v>0.02431039990865746</v>
       </c>
       <c r="Q13">
-        <v>22.95832370563687</v>
+        <v>1.26866496039</v>
       </c>
       <c r="R13">
-        <v>22.95832370563687</v>
+        <v>11.41798464351</v>
       </c>
       <c r="S13">
-        <v>0.1570014240290245</v>
+        <v>0.006615392782987653</v>
       </c>
       <c r="T13">
-        <v>0.1570014240290245</v>
+        <v>0.006615392782987653</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.686631882621105</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H14">
-        <v>0.686631882621105</v>
+        <v>4.62937</v>
       </c>
       <c r="I14">
-        <v>0.1551010125916509</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J14">
-        <v>0.1551010125916509</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.0914024338516</v>
+        <v>11.04613266666667</v>
       </c>
       <c r="N14">
-        <v>2.0914024338516</v>
+        <v>33.138398</v>
       </c>
       <c r="O14">
-        <v>0.0633155462072359</v>
+        <v>0.3266299850886302</v>
       </c>
       <c r="P14">
-        <v>0.0633155462072359</v>
+        <v>0.3266299850886302</v>
       </c>
       <c r="Q14">
-        <v>1.436023590473885</v>
+        <v>17.04554506102889</v>
       </c>
       <c r="R14">
-        <v>1.436023590473885</v>
+        <v>153.40990554926</v>
       </c>
       <c r="S14">
-        <v>0.009820305329535749</v>
+        <v>0.08888317979883115</v>
       </c>
       <c r="T14">
-        <v>0.009820305329535749</v>
+        <v>0.08888317979883115</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.686631882621105</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H15">
-        <v>0.686631882621105</v>
+        <v>4.62937</v>
       </c>
       <c r="I15">
-        <v>0.1551010125916509</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J15">
-        <v>0.1551010125916509</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.814780877862616</v>
+        <v>19.80071533333333</v>
       </c>
       <c r="N15">
-        <v>0.814780877862616</v>
+        <v>59.402146</v>
       </c>
       <c r="O15">
-        <v>0.02466684339946754</v>
+        <v>0.5854996992375019</v>
       </c>
       <c r="P15">
-        <v>0.02466684339946754</v>
+        <v>0.5854996992375019</v>
       </c>
       <c r="Q15">
-        <v>0.5594545280904846</v>
+        <v>30.55494584755778</v>
       </c>
       <c r="R15">
-        <v>0.5594545280904846</v>
+        <v>274.99451262802</v>
       </c>
       <c r="S15">
-        <v>0.003825852388697096</v>
+        <v>0.1593273043360279</v>
       </c>
       <c r="T15">
-        <v>0.003825852388697096</v>
+        <v>0.1593273043360279</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.686631882621105</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H16">
-        <v>0.686631882621105</v>
+        <v>4.62937</v>
       </c>
       <c r="I16">
-        <v>0.1551010125916509</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J16">
-        <v>0.1551010125916509</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>11.0004544677442</v>
+        <v>0.05179266666666667</v>
       </c>
       <c r="N16">
-        <v>11.0004544677442</v>
+        <v>0.155378</v>
       </c>
       <c r="O16">
-        <v>0.3330300146348946</v>
+        <v>0.001531489658103002</v>
       </c>
       <c r="P16">
-        <v>0.3330300146348946</v>
+        <v>0.001531489658103001</v>
       </c>
       <c r="Q16">
-        <v>7.553262760874945</v>
+        <v>0.07992247242888889</v>
       </c>
       <c r="R16">
-        <v>7.553262760874945</v>
+        <v>0.7193022518600001</v>
       </c>
       <c r="S16">
-        <v>0.05165329249328447</v>
+        <v>0.0004167519115070918</v>
       </c>
       <c r="T16">
-        <v>0.05165329249328447</v>
+        <v>0.0004167519115070917</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.632815666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.898447</v>
+      </c>
+      <c r="I17">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="J17">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.097707666666667</v>
+      </c>
+      <c r="N17">
+        <v>6.293123</v>
+      </c>
+      <c r="O17">
+        <v>0.06202842610710742</v>
+      </c>
+      <c r="P17">
+        <v>0.0620284261071074</v>
+      </c>
+      <c r="Q17">
+        <v>3.425169942220112</v>
+      </c>
+      <c r="R17">
+        <v>30.826529479981</v>
+      </c>
+      <c r="S17">
+        <v>0.01786038491147704</v>
+      </c>
+      <c r="T17">
+        <v>0.01786038491147703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.632815666666667</v>
+      </c>
+      <c r="H18">
+        <v>4.898447</v>
+      </c>
+      <c r="I18">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="J18">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8221409999999999</v>
+      </c>
+      <c r="N18">
+        <v>2.466423</v>
+      </c>
+      <c r="O18">
+        <v>0.02431039990865746</v>
+      </c>
+      <c r="P18">
+        <v>0.02431039990865746</v>
+      </c>
+      <c r="Q18">
+        <v>1.342404705009</v>
+      </c>
+      <c r="R18">
+        <v>12.081642345081</v>
+      </c>
+      <c r="S18">
+        <v>0.006999905155917008</v>
+      </c>
+      <c r="T18">
+        <v>0.006999905155917008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.632815666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.898447</v>
+      </c>
+      <c r="I19">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="J19">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.04613266666667</v>
+      </c>
+      <c r="N19">
+        <v>33.138398</v>
+      </c>
+      <c r="O19">
+        <v>0.3266299850886302</v>
+      </c>
+      <c r="P19">
+        <v>0.3266299850886302</v>
+      </c>
+      <c r="Q19">
+        <v>18.03629847421178</v>
+      </c>
+      <c r="R19">
+        <v>162.326686267906</v>
+      </c>
+      <c r="S19">
+        <v>0.09404941610544092</v>
+      </c>
+      <c r="T19">
+        <v>0.09404941610544092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.632815666666667</v>
+      </c>
+      <c r="H20">
+        <v>4.898447</v>
+      </c>
+      <c r="I20">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="J20">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.80071533333333</v>
+      </c>
+      <c r="N20">
+        <v>59.402146</v>
+      </c>
+      <c r="O20">
+        <v>0.5854996992375019</v>
+      </c>
+      <c r="P20">
+        <v>0.5854996992375019</v>
+      </c>
+      <c r="Q20">
+        <v>32.33091820747355</v>
+      </c>
+      <c r="R20">
+        <v>290.978263867262</v>
+      </c>
+      <c r="S20">
+        <v>0.168588027300238</v>
+      </c>
+      <c r="T20">
+        <v>0.168588027300238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.632815666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.898447</v>
+      </c>
+      <c r="I21">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="J21">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.05179266666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.155378</v>
+      </c>
+      <c r="O21">
+        <v>0.001531489658103002</v>
+      </c>
+      <c r="P21">
+        <v>0.001531489658103001</v>
+      </c>
+      <c r="Q21">
+        <v>0.08456787755177779</v>
+      </c>
+      <c r="R21">
+        <v>0.7611108979660001</v>
+      </c>
+      <c r="S21">
+        <v>0.0004409751544305552</v>
+      </c>
+      <c r="T21">
+        <v>0.0004409751544305551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.495777</v>
+      </c>
+      <c r="I22">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J22">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.097707666666667</v>
+      </c>
+      <c r="N22">
+        <v>6.293123</v>
+      </c>
+      <c r="O22">
+        <v>0.06202842610710742</v>
+      </c>
+      <c r="P22">
+        <v>0.0620284261071074</v>
+      </c>
+      <c r="Q22">
+        <v>1.745136849063445</v>
+      </c>
+      <c r="R22">
+        <v>15.706231641571</v>
+      </c>
+      <c r="S22">
+        <v>0.009099932667070078</v>
+      </c>
+      <c r="T22">
+        <v>0.009099932667070076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.495777</v>
+      </c>
+      <c r="I23">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J23">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.8221409999999999</v>
+      </c>
+      <c r="N23">
+        <v>2.466423</v>
+      </c>
+      <c r="O23">
+        <v>0.02431039990865746</v>
+      </c>
+      <c r="P23">
+        <v>0.02431039990865746</v>
+      </c>
+      <c r="Q23">
+        <v>0.6839601995189999</v>
+      </c>
+      <c r="R23">
+        <v>6.155641795670999</v>
+      </c>
+      <c r="S23">
+        <v>0.003566477761282113</v>
+      </c>
+      <c r="T23">
+        <v>0.003566477761282113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.686631882621105</v>
-      </c>
-      <c r="H17">
-        <v>0.686631882621105</v>
-      </c>
-      <c r="I17">
-        <v>0.1551010125916509</v>
-      </c>
-      <c r="J17">
-        <v>0.1551010125916509</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>19.1247827662367</v>
-      </c>
-      <c r="N17">
-        <v>19.1247827662367</v>
-      </c>
-      <c r="O17">
-        <v>0.5789875957584021</v>
-      </c>
-      <c r="P17">
-        <v>0.5789875957584021</v>
-      </c>
-      <c r="Q17">
-        <v>13.13168559550077</v>
-      </c>
-      <c r="R17">
-        <v>13.13168559550077</v>
-      </c>
-      <c r="S17">
-        <v>0.08980156238013361</v>
-      </c>
-      <c r="T17">
-        <v>0.08980156238013361</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.495777</v>
+      </c>
+      <c r="I24">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J24">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.04613266666667</v>
+      </c>
+      <c r="N24">
+        <v>33.138398</v>
+      </c>
+      <c r="O24">
+        <v>0.3266299850886302</v>
+      </c>
+      <c r="P24">
+        <v>0.3266299850886302</v>
+      </c>
+      <c r="Q24">
+        <v>9.189561282805112</v>
+      </c>
+      <c r="R24">
+        <v>82.706051545246</v>
+      </c>
+      <c r="S24">
+        <v>0.04791852797006664</v>
+      </c>
+      <c r="T24">
+        <v>0.04791852797006664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.495777</v>
+      </c>
+      <c r="I25">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J25">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.80071533333333</v>
+      </c>
+      <c r="N25">
+        <v>59.402146</v>
+      </c>
+      <c r="O25">
+        <v>0.5854996992375019</v>
+      </c>
+      <c r="P25">
+        <v>0.5854996992375019</v>
+      </c>
+      <c r="Q25">
+        <v>16.47272330416022</v>
+      </c>
+      <c r="R25">
+        <v>148.254509737442</v>
+      </c>
+      <c r="S25">
+        <v>0.0858962281333872</v>
+      </c>
+      <c r="T25">
+        <v>0.0858962281333872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H26">
+        <v>2.495777</v>
+      </c>
+      <c r="I26">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J26">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.05179266666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.155378</v>
+      </c>
+      <c r="O26">
+        <v>0.001531489658103002</v>
+      </c>
+      <c r="P26">
+        <v>0.001531489658103001</v>
+      </c>
+      <c r="Q26">
+        <v>0.04308764874511112</v>
+      </c>
+      <c r="R26">
+        <v>0.387788838706</v>
+      </c>
+      <c r="S26">
+        <v>0.0002246784844256206</v>
+      </c>
+      <c r="T26">
+        <v>0.0002246784844256205</v>
       </c>
     </row>
   </sheetData>
